--- a/biology/Zoologie/Anchois_de_Collioure/Anchois_de_Collioure.xlsx
+++ b/biology/Zoologie/Anchois_de_Collioure/Anchois_de_Collioure.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'anchois de Collioure est une production alimentaire spécifique de la commune de Collioure, située dans le département français des Pyrénées-Orientales, qui a obtenu le 24 juin 2004 le label européen d'IGP. L'espèce d'anchois utilisée est Engraulis encrasicolus.
@@ -514,7 +526,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1659, le Traité des Pyrénées raccorde la ville de Collioure à la France ; le roi exonère alors cette ville de gabelle.
 </t>
@@ -545,14 +559,12 @@
           <t>L'anchois</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Petit poisson de quinze à vingt centimètres de longueur, l'anchois fréquente les mers d'Europe : la mer Méditerranée, la mer du Nord, la Mer Noire, l'Océan Atlantique.
 Les anchois passent l'hiver sur des fonds de cent à deux cents mètres de profondeur où ils trouvent une température clémente. Pour frayer ils se rapprochent des côtes ; ils constituent alors des bancs de millions et parfois de milliards d'individus.
-Pêche
-Sa pêche se pratique en juin-juillet à l'aide de filets appelés « rissoles » la nuit, les anchois sont attirés dans les filets à l'aide du « lamparo ». Cependant, la présence d'anchois exploitables dans la Méditerranée se fait rare, si bien que les conserveries sont de plus en plus obligées d'importer du poisson du golfe de Gascogne ou d'Argentine. Ces pénuries croissantes nourrissent les craintes des acteurs de la filière économique locale[2],[3],[4].
-Conservation
-Pour leur conservation les anchois sont salés dans des barils dans lesquels sont alternés des lits de sel et des lits d'anchois.
 </t>
         </is>
       </c>
@@ -578,10 +590,86 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>L'anchois</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Pêche</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sa pêche se pratique en juin-juillet à l'aide de filets appelés « rissoles » la nuit, les anchois sont attirés dans les filets à l'aide du « lamparo ». Cependant, la présence d'anchois exploitables dans la Méditerranée se fait rare, si bien que les conserveries sont de plus en plus obligées d'importer du poisson du golfe de Gascogne ou d'Argentine. Ces pénuries croissantes nourrissent les craintes des acteurs de la filière économique locale.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Anchois_de_Collioure</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anchois_de_Collioure</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>L'anchois</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Conservation</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pour leur conservation les anchois sont salés dans des barils dans lesquels sont alternés des lits de sel et des lits d'anchois.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Anchois_de_Collioure</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anchois_de_Collioure</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Propriétés</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">L'anchois aurait les propriétés d'exciter l'appétit et de faciliter la digestion.
 Les Romains préparaient avec ces petits poissons écrasés et cuits dans la saumure, auxquels ils ajoutaient du vinaigre et du persil haché, une sauce très prisée qu'ils baptisaient garum. Ce garum ressemble assez à la sauce aux anchois des Britanniques.
@@ -590,31 +678,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Anchois_de_Collioure</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Anchois_de_Collioure</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Recettes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>L'anchois de Collioure est un mets essentiel de la gastronomie locale. Parmi les différentes recettes : 
 anchois aux pommes reinettes
